--- a/грузия/исходники демография/Население и демография общее.xlsx
+++ b/грузия/исходники демография/Население и демография общее.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\python repo\грузия\исходники демография\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Год</t>
   </si>
   <si>
     <t>Число рождений</t>
-  </si>
-  <si>
-    <t>Число погибших</t>
-  </si>
-  <si>
-    <t>Число иммигрантов</t>
-  </si>
-  <si>
-    <t>Число эмигрантов</t>
   </si>
   <si>
     <t>Число браков</t>
@@ -37,7 +33,7 @@
     <t>Количество разводов</t>
   </si>
   <si>
-    <t>Численность населения на 1 января</t>
+    <t>Число иммигрантов (приезжих)</t>
   </si>
 </sst>
 </file>
@@ -45,9 +41,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,16 +51,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaRoman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,47 +85,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,26 +153,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:H10"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Год"/>
-    <tableColumn id="2" name="Численность населения на 1 января" dataDxfId="6"/>
-    <tableColumn id="3" name="Число рождений" dataDxfId="5"/>
-    <tableColumn id="4" name="Число погибших" dataDxfId="4"/>
-    <tableColumn id="5" name="Число браков" dataDxfId="3"/>
-    <tableColumn id="6" name="Количество разводов" dataDxfId="2"/>
-    <tableColumn id="7" name="Число иммигрантов" dataDxfId="1"/>
-    <tableColumn id="8" name="Число эмигрантов" dataDxfId="0"/>
+    <tableColumn id="3" name="Число рождений"/>
+    <tableColumn id="5" name="Число браков"/>
+    <tableColumn id="6" name="Количество разводов"/>
+    <tableColumn id="7" name="Число иммигрантов (приезжих)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,9 +207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -275,7 +300,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -286,31 +310,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -332,7 +356,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -390,7 +414,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -403,13 +427,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -428,270 +451,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="4">
         <v>2016</v>
       </c>
-      <c r="B2" s="2">
-        <v>3728.6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>56.569000000000003</v>
-      </c>
-      <c r="D2" s="2">
-        <v>50.771000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>25.100999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9.5389999999999997</v>
-      </c>
-      <c r="G2" s="2">
-        <v>90.227999999999994</v>
-      </c>
-      <c r="H2" s="2">
-        <v>98.287999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="8">
+        <v>56569</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9539</v>
+      </c>
+      <c r="E2" s="5">
+        <v>90228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A3" s="4">
         <v>2017</v>
       </c>
-      <c r="B3" s="2">
-        <v>3726.4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>53.292999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>47.822000000000003</v>
-      </c>
-      <c r="E3" s="2">
-        <v>23.684000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10.222</v>
-      </c>
-      <c r="G3" s="2">
-        <v>83.239000000000004</v>
-      </c>
-      <c r="H3" s="2">
-        <v>85.450999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="8">
+        <v>53293</v>
+      </c>
+      <c r="C3" s="5">
+        <v>23684</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10222</v>
+      </c>
+      <c r="E3" s="5">
+        <v>83239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A4" s="4">
         <v>2018</v>
       </c>
-      <c r="B4" s="2">
-        <v>3729.6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>51.137999999999998</v>
-      </c>
-      <c r="D4" s="2">
-        <v>46.524000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>23.202000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10.288</v>
-      </c>
-      <c r="G4" s="2">
-        <v>88.152000000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>98.935000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="8">
+        <v>51138</v>
+      </c>
+      <c r="C4" s="5">
+        <v>23202</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10288</v>
+      </c>
+      <c r="E4" s="5">
+        <v>88152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="4">
         <v>2019</v>
       </c>
-      <c r="B5" s="2">
-        <v>3723.5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>48.295999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>46.658999999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <v>23.285</v>
-      </c>
-      <c r="F5" s="2">
-        <v>11.205</v>
-      </c>
-      <c r="G5" s="2">
-        <v>96.864000000000004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>105.107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="8">
+        <v>48296</v>
+      </c>
+      <c r="C5" s="5">
+        <v>23285</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11205</v>
+      </c>
+      <c r="E5" s="5">
+        <v>96864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="4">
         <v>2020</v>
       </c>
-      <c r="B6" s="2">
-        <v>3716.9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>46.52</v>
-      </c>
-      <c r="D6" s="2">
-        <v>50.536999999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>16.359000000000002</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.6429999999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <v>89.995999999999995</v>
-      </c>
-      <c r="H6" s="2">
-        <v>74.263999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="8">
+        <v>46520</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16359</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7643</v>
+      </c>
+      <c r="E6" s="5">
+        <v>89996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A7" s="4">
         <v>2021</v>
       </c>
-      <c r="B7" s="2">
-        <v>3728.6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45.945999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>59.905999999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>23.155000000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10.654</v>
-      </c>
-      <c r="G7" s="2">
-        <v>74.007999999999996</v>
-      </c>
-      <c r="H7" s="2">
-        <v>99.974000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="8">
+        <v>45946</v>
+      </c>
+      <c r="C7" s="5">
+        <v>23155</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10654</v>
+      </c>
+      <c r="E7" s="5">
+        <v>74008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="4">
         <v>2022</v>
       </c>
-      <c r="B8" s="2">
-        <v>3688.6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42.319000000000003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>49.118000000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>26.047999999999998</v>
-      </c>
-      <c r="F8" s="2">
-        <v>14.098000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>179.77799999999999</v>
-      </c>
-      <c r="H8" s="2">
-        <v>125.26900000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="8">
+        <v>42319</v>
+      </c>
+      <c r="C8" s="5">
+        <v>26048</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14098</v>
+      </c>
+      <c r="E8" s="5">
+        <v>179778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A9" s="4">
         <v>2023</v>
       </c>
-      <c r="B9" s="2">
-        <v>3736.4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40.213999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42.756</v>
-      </c>
-      <c r="E9" s="2">
-        <v>22.274999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>13.664</v>
-      </c>
-      <c r="G9" s="2">
-        <v>205.857</v>
-      </c>
-      <c r="H9" s="2">
-        <v>245.06399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="8">
+        <v>40214</v>
+      </c>
+      <c r="C9" s="5">
+        <v>22275</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13664</v>
+      </c>
+      <c r="E9" s="5">
+        <v>205857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A10" s="4">
         <v>2024</v>
       </c>
-      <c r="B10" s="2">
-        <v>3694.6</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="20" spans="6:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="6:10">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
